--- a/4-Estimacion.xlsx
+++ b/4-Estimacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Choucair\Capacitación\Plan_2\Ejercicio Práctico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC7DC6A-4DE6-496A-A532-2D66EA9E634D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280BF905-BA15-429F-BB47-C9DB9ECC0684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDT" sheetId="2" r:id="rId1"/>
@@ -33,34 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{A51D0A53-D06A-4620-8BE7-F6D6838C369A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAAAlbHV_gg
-Causales de desfase    (2022-12-19 13:41:01)
-https://wiki.choucairtesting.com/wiki/index.php/Clasificaci%C3%B3n_Desfases</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Etapa/Actividades</t>
   </si>
@@ -83,30 +57,18 @@
     <t>Reunión de contexto y entendimiento</t>
   </si>
   <si>
-    <t>Lectura de documentación</t>
-  </si>
-  <si>
     <t>Revision de pruebas unitarias</t>
   </si>
   <si>
     <t>Planeacion</t>
   </si>
   <si>
-    <t>Planear pruebas( Analisis, Riesgos, Alcance, Estrategia, Fuera del alcance)</t>
-  </si>
-  <si>
     <t>Estimar los tiempos</t>
   </si>
   <si>
     <t>Cronograma</t>
   </si>
   <si>
-    <t xml:space="preserve">Riesgos de pruebas </t>
-  </si>
-  <si>
-    <t>Planerar Tipo de pruebas</t>
-  </si>
-  <si>
     <t>Diseño</t>
   </si>
   <si>
@@ -119,12 +81,6 @@
     <t xml:space="preserve">Pruebas de regresion </t>
   </si>
   <si>
-    <t>Pruebas de aceptacion</t>
-  </si>
-  <si>
-    <t>Verificación de la disposición de los elementos</t>
-  </si>
-  <si>
     <t>Tiempo de visualización</t>
   </si>
   <si>
@@ -134,12 +90,6 @@
     <t>Pruebas de funcionales</t>
   </si>
   <si>
-    <t>Pruebas de regresion (De ser necesario)</t>
-  </si>
-  <si>
-    <t>Pruebas UAT</t>
-  </si>
-  <si>
     <t>Cierre/Entrega</t>
   </si>
   <si>
@@ -147,9 +97,6 @@
   </si>
   <si>
     <t>Entrega de documentación del proyecto</t>
-  </si>
-  <si>
-    <t>Gestion de proyecto / Logistica</t>
   </si>
   <si>
     <t>Gestion de las incidencias</t>
@@ -473,6 +420,39 @@
   </si>
   <si>
     <t>Clientes</t>
+  </si>
+  <si>
+    <t>Verificación de la disposición de los elementos en pantalla</t>
+  </si>
+  <si>
+    <t>Pruebas de regresion</t>
+  </si>
+  <si>
+    <t>Análisis de riesgos</t>
+  </si>
+  <si>
+    <t>Definición del alcance</t>
+  </si>
+  <si>
+    <t>Planear tipo de pruebas</t>
+  </si>
+  <si>
+    <t>Revisión de documentación</t>
+  </si>
+  <si>
+    <t>Gestion de proyecto</t>
+  </si>
+  <si>
+    <t>Logística</t>
+  </si>
+  <si>
+    <t>Identificación de restricciones</t>
+  </si>
+  <si>
+    <t>Verificación de ambientes de prueba</t>
+  </si>
+  <si>
+    <t>Preparación de herramientas de software</t>
   </si>
 </sst>
 </file>
@@ -573,10 +553,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -585,18 +566,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0CECE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -658,8 +627,20 @@
         <bgColor theme="7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -891,27 +872,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -924,147 +909,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,13 +1087,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>593480</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>146537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1537,966 +1535,1005 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EB96FE-C4F0-4D8E-8D58-045A46554DCD}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" style="47" customWidth="1"/>
     <col min="3" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="20">
-        <f>SUM(E3:E5)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35">
+        <f>SUM(E3:E6)</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="5">
         <f>B3*D3</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="5">
         <f>B4*D4</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="5">
         <f>B5*D5</f>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <f>B6*D6</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="24">
-        <f>SUM(E8:E12)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="41">
+        <f>SUM(E9:E10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9">
-        <v>4</v>
-      </c>
-      <c r="E8" s="10">
-        <f>B8*D8</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4">
         <v>0.5</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="5">
         <f>B9*D9</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="5">
+        <f>B10*D10</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="29">
+        <f>SUM(E13:E17)</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" ref="E13:E14" si="0">B13*D13</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="5">
+        <f>B15*D15</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="5">
+        <f>B16*D16</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <f>B17*D17</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="29">
+        <f>SUM(E19:E21)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <f>+B19*D19</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" ref="E20:E21" si="1">+B20*D20</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9">
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28">
+        <f>SUM(C23:C28)</f>
+        <v>7</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29">
+        <f>SUM(E23:E28)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30">
+      <c r="A23" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
         <v>0.5</v>
       </c>
-      <c r="E10" s="10">
-        <f>B10*D10</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="9">
-        <v>3</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
+      <c r="E23" s="5">
+        <f t="shared" ref="E23:E28" si="2">C23*D23</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="10">
-        <f>B11*D11</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9">
+      <c r="D24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="10">
-        <f>B12*D12</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="24">
-        <f>SUM(E14:E17)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="9">
-        <v>2</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
+      <c r="D25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30">
+      <c r="A26" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="10">
-        <f>+B14*D14</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="9">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9">
-        <v>2</v>
-      </c>
-      <c r="E15" s="10">
-        <f t="shared" ref="E15:E17" si="0">+B15*D15</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="9">
-        <v>2</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="E16" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="9">
-        <v>2</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9">
+      <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22">
-        <f>SUM(C19:C24)</f>
-        <v>7</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="25">
-        <f>SUM(E19:E24)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30">
-      <c r="A19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="10">
-        <f t="shared" ref="E19:E24" si="1">C19*D19</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="10">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="10">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="10">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30">
-      <c r="A24" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9">
-        <v>2</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="15"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="43">
-        <f>SUM(E27:E30)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="9">
-        <v>2</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
-        <f>+B27*D27</f>
-        <v>2</v>
-      </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9">
-        <v>6</v>
-      </c>
-      <c r="D28" s="26">
-        <f>AVERAGE(D19:D24)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="42">
-        <f>C28*D28</f>
-        <v>3</v>
-      </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="9">
-        <v>2</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
-        <f t="shared" ref="E29:E30" si="2">+B29*D29</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="9">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="E26" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
+    <row r="27" spans="1:12" ht="30">
+      <c r="A27" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30">
+      <c r="A28" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="36">
+        <f>SUM(E31:E33)</f>
+        <v>11</v>
+      </c>
+    </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <f>+B31*D31</f>
+        <v>2</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4">
+        <v>6</v>
+      </c>
+      <c r="D32" s="50">
+        <v>1</v>
+      </c>
+      <c r="E32" s="18">
+        <f>C32*D32</f>
+        <v>6</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" ref="E33" si="3">+B33*D33</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29">
+        <f>SUM(E35:E36)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30">
+      <c r="A35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="4">
+        <v>3</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <f>+B35*D35</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30">
+      <c r="A36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="4">
+        <v>3</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <f>B36*D36</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="29">
+        <f>SUM(E38:E39)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="4">
+        <v>3</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5">
+        <f>+B38*D38</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="4">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5">
+        <f>+B39*D39</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="36">
+        <f>SUM(E2,E8,E12,E18,E22,E30,E37,E34)</f>
+        <v>78.5</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="18.75">
+      <c r="C43" s="10">
+        <f>E40*E43</f>
+        <v>12.56</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12">
+        <f>'Factor de Ajuste'!B16</f>
+        <v>0.16</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75">
+      <c r="C44" s="14">
+        <f>E40+C43</f>
+        <v>91.06</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="25">
-        <f>SUM(E32:E33)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="17" t="s">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B47" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="51"/>
+      <c r="D47" s="8">
         <v>3</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10">
-        <f>+B32*D32</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="9">
-        <v>3</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10">
-        <f>B33*D33</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3" t="s">
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="25">
-        <f>SUM(E35:E36)</f>
+      <c r="C48" s="51"/>
+      <c r="D48" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="6" t="s">
+    <row r="49" spans="2:6">
+      <c r="B49" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="9">
-        <v>3</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9">
-        <v>2</v>
-      </c>
-      <c r="E35" s="10">
-        <f>+B35*D35</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="6" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="9">
+        <f>D48*D47</f>
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="9">
-        <v>3</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
-      <c r="E36" s="10">
-        <f>+B36*D36</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="38" t="s">
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="43">
-        <f>SUM(E2,E7,E13,E18,E26,E34,E31)</f>
-        <v>70.5</v>
-      </c>
-      <c r="F37" s="41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="B38" s="9"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="40" spans="1:6" ht="18.75">
-      <c r="C40" s="31">
-        <f>E37*E40</f>
-        <v>18.330000000000002</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33">
-        <v>0.26</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75">
-      <c r="C41" s="35">
-        <f>E37+C40</f>
-        <v>88.83</v>
-      </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="B45" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="B46" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="29">
-        <f>D45*D44</f>
-        <v>27</v>
-      </c>
-      <c r="F46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="B47" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="29">
-        <f>E37/D46</f>
-        <v>2.6111111111111112</v>
+      <c r="C50" s="51"/>
+      <c r="D50" s="49">
+        <f>C44/D49</f>
+        <v>3.3725925925925928</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E32 E34" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D76476-4E61-442B-85E0-8AF4F56E7847}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D76476-4E61-442B-85E0-8AF4F56E7847}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="89" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" ht="45">
-      <c r="A2" s="46" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="30">
+      <c r="A2" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="23">
+        <v>1</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="56">
+        <v>2</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="60"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="23">
+        <v>3</v>
+      </c>
+      <c r="E6" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="47" t="s">
+      <c r="B7" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="50" t="s">
+      <c r="B8" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B9" s="22">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="22">
         <v>0.02</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="52">
-        <v>1</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="51">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="22">
         <v>0</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="54">
-        <v>2</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="51">
-        <v>0</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="50" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="51">
-        <v>0</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="52">
-        <v>3</v>
-      </c>
-      <c r="E6" s="53" t="s">
+      <c r="B14" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="50" t="s">
+      <c r="B15" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="51">
-        <v>0.02</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="50" t="s">
+      <c r="B16" s="25">
+        <f>SUM(B3:B15)</f>
+        <v>0.16</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="51">
-        <v>0.08</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="50" t="s">
+      <c r="D16" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="51">
-        <v>0</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="50" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="51">
-        <v>0.05</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="50" t="s">
+      <c r="D17" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="51">
-        <v>0.03</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="51">
-        <v>0</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="51">
-        <v>0</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="51">
-        <v>0.03</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="51">
-        <v>0.03</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="63">
-        <f>SUM(B3:B15)</f>
-        <v>0.26</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2507,6 +2544,5 @@
     <mergeCell ref="E6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/4-Estimacion.xlsx
+++ b/4-Estimacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Choucair\Capacitación\Plan_2\Ejercicio Práctico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280BF905-BA15-429F-BB47-C9DB9ECC0684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEDBFC9-5AC5-4C94-9782-3D46AF9864C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDT" sheetId="2" r:id="rId1"/>
@@ -164,6 +164,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Mala calidad de artefacto recibido-</t>
     </r>
@@ -173,6 +174,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Desarrollo</t>
     </r>
@@ -186,6 +188,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Alistamiento de ambientes-</t>
     </r>
@@ -195,6 +198,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ambientes QA</t>
     </r>
@@ -208,6 +212,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Pendiente de Instalación Por Infraestructura-</t>
     </r>
@@ -217,6 +222,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Infraestructura</t>
     </r>
@@ -227,6 +233,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Cambio de alcance-</t>
     </r>
@@ -236,6 +243,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Gestion de la Demanda</t>
     </r>
@@ -249,6 +257,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Administración y control de versiones o releases de software-</t>
     </r>
@@ -258,6 +267,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Versiones</t>
     </r>
@@ -268,6 +278,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Desconocimiento negocio-</t>
     </r>
@@ -277,6 +288,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Fabrica QA</t>
     </r>
@@ -287,6 +299,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Incumplimiento en la entrega de artefactos(Pend Entrega del desarrollo)-</t>
     </r>
@@ -296,6 +309,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Desarrollo</t>
     </r>
@@ -306,6 +320,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Gestión issues(Bloqueado por defecto)-</t>
     </r>
@@ -315,6 +330,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Desarrollo</t>
     </r>
@@ -325,6 +341,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Inestabilidad del ambiente de pruebas durante la ejecución - </t>
     </r>
@@ -334,6 +351,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Infraestructura</t>
     </r>
@@ -342,6 +360,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -352,6 +371,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Actividades de SW o HW no planeadas-</t>
     </r>
@@ -361,6 +381,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Infraestructura QA</t>
     </r>
@@ -371,6 +392,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ejecución en ambientes compartidos-</t>
     </r>
@@ -380,6 +402,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Release Management</t>
     </r>
@@ -390,6 +413,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Novedades equipo de trabajo, Actividades del proyecto no planeadas -</t>
     </r>
@@ -399,6 +423,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>QA</t>
     </r>
@@ -462,7 +487,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,28 +554,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1537,11 +1567,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EB96FE-C4F0-4D8E-8D58-045A46554DCD}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" style="47" customWidth="1"/>
     <col min="3" max="4" width="14.85546875" customWidth="1"/>
@@ -1549,7 +1579,7 @@
     <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" customHeight="1">
+    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1566,7 +1596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
@@ -1578,7 +1608,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1594,7 +1624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -1610,7 +1640,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -1626,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1642,14 +1672,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>69</v>
       </c>
@@ -1661,7 +1691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -1677,7 +1707,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -1693,14 +1723,14 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>8</v>
       </c>
@@ -1712,7 +1742,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
@@ -1728,7 +1758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
@@ -1744,7 +1774,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1760,7 +1790,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1776,7 +1806,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -1792,7 +1822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>11</v>
       </c>
@@ -1804,7 +1834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1820,7 +1850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1836,7 +1866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1852,22 +1882,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28">
         <f>SUM(C23:C28)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="29">
         <f>SUM(E23:E28)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>62</v>
       </c>
@@ -1883,7 +1913,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>15</v>
       </c>
@@ -1899,39 +1929,39 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4">
         <v>1</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.5</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>36</v>
       </c>
@@ -1947,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>37</v>
       </c>
@@ -1963,14 +1993,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>16</v>
       </c>
@@ -1982,7 +2012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>12</v>
       </c>
@@ -2003,7 +2033,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>17</v>
       </c>
@@ -2024,7 +2054,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>63</v>
       </c>
@@ -2040,7 +2070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
         <v>18</v>
       </c>
@@ -2052,7 +2082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>19</v>
       </c>
@@ -2068,7 +2098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>20</v>
       </c>
@@ -2084,7 +2114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
         <v>68</v>
       </c>
@@ -2096,7 +2126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -2112,7 +2142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
@@ -2128,7 +2158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
         <v>23</v>
       </c>
@@ -2137,22 +2167,22 @@
       <c r="D40" s="38"/>
       <c r="E40" s="36">
         <f>SUM(E2,E8,E12,E18,E22,E30,E37,E34)</f>
-        <v>78.5</v>
+        <v>82</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="18.75">
+    <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C43" s="10">
         <f>E40*E43</f>
-        <v>12.56</v>
+        <v>13.120000000000001</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="12">
@@ -2163,10 +2193,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" s="14">
         <f>E40+C43</f>
-        <v>91.06</v>
+        <v>95.12</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="16"/>
@@ -2174,7 +2204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>27</v>
       </c>
@@ -2186,7 +2216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="51" t="s">
         <v>29</v>
       </c>
@@ -2195,7 +2225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="51" t="s">
         <v>30</v>
       </c>
@@ -2208,14 +2238,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="51" t="s">
         <v>32</v>
       </c>
       <c r="C50" s="51"/>
       <c r="D50" s="49">
         <f>C44/D49</f>
-        <v>3.3725925925925928</v>
+        <v>3.5229629629629633</v>
       </c>
     </row>
   </sheetData>
@@ -2238,17 +2268,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D76476-4E61-442B-85E0-8AF4F56E7847}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="89" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2260,7 +2290,7 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="1:10" ht="30">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>38</v>
       </c>
@@ -2278,7 +2308,7 @@
       <c r="I2" s="53"/>
       <c r="J2" s="54"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>41</v>
       </c>
@@ -2298,7 +2328,7 @@
       <c r="I3" s="53"/>
       <c r="J3" s="54"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>43</v>
       </c>
@@ -2318,7 +2348,7 @@
       <c r="I4" s="59"/>
       <c r="J4" s="60"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>45</v>
       </c>
@@ -2334,7 +2364,7 @@
       <c r="I5" s="62"/>
       <c r="J5" s="63"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>46</v>
       </c>
@@ -2354,7 +2384,7 @@
       <c r="I6" s="53"/>
       <c r="J6" s="54"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -2370,7 +2400,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>49</v>
       </c>
@@ -2386,7 +2416,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>50</v>
       </c>
@@ -2402,7 +2432,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>51</v>
       </c>
@@ -2418,7 +2448,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>52</v>
       </c>
@@ -2434,7 +2464,7 @@
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>53</v>
       </c>
@@ -2450,7 +2480,7 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>54</v>
       </c>
@@ -2466,7 +2496,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>55</v>
       </c>
@@ -2482,7 +2512,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>56</v>
       </c>
@@ -2498,7 +2528,7 @@
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>57</v>
       </c>
@@ -2519,7 +2549,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="27" t="s">
